--- a/Salary/W3 Salaries and Tasks.xlsx
+++ b/Salary/W3 Salaries and Tasks.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <r>
       <rPr>
@@ -61,6 +61,30 @@
     <t xml:space="preserve">Total Number of Team Members</t>
   </si>
   <si>
+    <t xml:space="preserve">Team Member Names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Member Salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathaniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total salary distributed </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -70,50 +94,6 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Team Member Names</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (leave blank if none)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Team Member Salary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nathaniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexandre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Livio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total salary distributed </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">Total salary remaining</t>
     </r>
     <r>
@@ -174,6 +154,24 @@
       </rPr>
       <t xml:space="preserve">(contiguously list tasks to complete in a columnar format in cells B19 and on)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Update github readme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check-up with stakeholder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do affinity cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stay in contact with stakeholder</t>
   </si>
 </sst>
 </file>
@@ -431,14 +429,14 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="90.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -477,7 +475,7 @@
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -564,19 +562,31 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
+      <c r="A21" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="B21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
+      <c r="A22" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="B22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
